--- a/biology/Médecine/Rapport_Abraham_Flexner/Rapport_Abraham_Flexner.xlsx
+++ b/biology/Médecine/Rapport_Abraham_Flexner/Rapport_Abraham_Flexner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rapport Flexner fut un évènement important dans l’histoire de la médecine américaine et canadienne. Il s’agit d’une étude sur les conditions de l’enseignement médical au début des années 1900 qui donna naissance à l’enseignement médical moderne.
 </t>
@@ -511,7 +523,9 @@
           <t>Précis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraham Flexner (1866-1959) n’était pas médecin mais enseignant et principal de collège (à ne pas confondre avec le collège en France) durant 19 ans à Louisville, Kentucky. Flexner enseigna ensuite à Harvard, à l’Université de Berlin puis rejoignit le personnel de la Fondation Carnegie pour la promotion de l'enseignement.
 Pour l’Institut Carnegie, Flexner étudia la question de l'enseignement médical et rédigea un rapport publié en 1910 intitulé  «Éducation médicale aux É.-U. et au Canada ». connu aujourd'hui sous le nom de « Rapport Flexner ».
